--- a/medicine/Mort/Décès_en_1928/Décès_en_1928.xlsx
+++ b/medicine/Mort/Décès_en_1928/Décès_en_1928.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2 janvier :
 Yves du Manoir (Yves Frantz Loÿs Marie), aviateur, polytechnicien, international de rugby à XV (° 11 août 1904).
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>4 février : Hendrik Lorentz, physicien néerlandais (° 18 juillet 1853).
 6 février : Johann Georg van Caspel, peintre, architecte, illustrateur et affichiste néerlandais (° 2 mai 1870).
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 mars : Jan Toorop, peintre néerlandais (° 20 décembre 1858).
 8 mars : Georges Jauneau, illustrateur français (° 17 septembre 1882).
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>5 avril : Viktor Oliva, peintre et affichiste autrichien, austro-hongrois puis tchécoslovaque (° 24 avril 1861).
 7 avril : Alexandre Bogdanov, médecin, économiste, écrivain et homme politique russe puis soviétique (° 22 août 1873).
@@ -660,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +698,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 mai : Fernand Siméon, peintre, graveur et illustrateur français (° 22 avril 1884).
 5 mai : Georges Passerieu, coureur cycliste français (° 18 novembre 1885).
@@ -697,7 +719,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,7 +737,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>3 juin : Li Yuanhong, général et homme politique chinois (° 19 octobre 1864).
 11 juin : Jean-Gaston Cugnenc, peintre et illustrateur français (° 1867).
@@ -735,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -753,7 +777,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1er juillet : Esther Huillard, peintre française (° 26 janvier 1855).
 6 juillet : Henry Caro-Delvaille, peintre et décorateur français (° 6 juillet 1876).
@@ -771,7 +797,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,7 +815,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>4 août : Francisco Álvaro Bueno de Paiva, magistrat et homme d'État brésilien (° 17 septembre 1861).
 7 août : Joseph De Ruymbeke, footballeur belge (° 16 janvier 1900).
@@ -813,7 +841,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,7 +859,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>4 septembre : Jean-Charles Contel, peintre et lithographe français (° 4 mai 1895).
 10 septembre : Fiodor Ivanovitch Ouspenski, historien russe puis soviétique (° 7 février 1845).
@@ -847,7 +877,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -865,7 +895,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er octobre : Edna Luby, actrice américaine (° 12 octobre 1884).
 8 octobre : Ivan Skvortsov-Stepanov, militant bolchévique russe puis soviétique (° 8 mars 1870).
@@ -889,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -907,7 +939,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>5 novembre : Viktor Zarubin, peintre, graphiste et scénographe russe puis soviétique (° 13 novembre 1866).
 22 novembre : Erich Kaiser-Titz, acteur allemand (° 7 octobre 1875).
@@ -921,7 +955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,7 +973,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>6 décembre : Jules Dubois, coureur cycliste français (° 4 mai 1862).
 10 décembre : Charles Rennie Mackintosh, architecte, concepteur écossais (° 7 juin 1868).
@@ -958,7 +994,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1928</t>
+          <t>Décès_en_1928</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -976,7 +1012,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Egidio Coppola, peintre italien (° 1er mai 1852).
 Dimítrios Doúlis, militaire et homme politique grec et nord-épirote (° 1865).
